--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/57.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/57.xlsx
@@ -479,13 +479,13 @@
         <v>-18.02239234717236</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.039203534126447</v>
+        <v>-9.090525361266012</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.757042124410097</v>
+        <v>-1.732022733679559</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.778100555200024</v>
+        <v>-7.771659142201895</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.16472696208814</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.698872305109656</v>
+        <v>-9.745297610986416</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.765591398165745</v>
+        <v>-1.741972883839271</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.639479252711828</v>
+        <v>-7.628586456747512</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-16.2264247560206</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.24733505575524</v>
+        <v>-10.29201908535405</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.765539028954378</v>
+        <v>-1.741331361000026</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.452337875892196</v>
+        <v>-7.434898928507017</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.29098962989827</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.89681801512759</v>
+        <v>-10.93981313765982</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.76419052176168</v>
+        <v>-1.741540837845494</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.026641648993473</v>
+        <v>-7.011912808296531</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.37030508160468</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.5113968951239</v>
+        <v>-11.55520374043231</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.821351515968656</v>
+        <v>-1.795769156215923</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.777220187555749</v>
+        <v>-6.763015038972477</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.4937864843314</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.30891452272764</v>
+        <v>-12.35306176790994</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.604582257818197</v>
+        <v>-1.581906389296328</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.402688680162492</v>
+        <v>-6.385812701799507</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.68085860933311</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.95028025433812</v>
+        <v>-12.9938252535897</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.508366924234352</v>
+        <v>-1.48734068587054</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.733763651070182</v>
+        <v>-5.720527332897197</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.95239205700357</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.56340588871899</v>
+        <v>-13.60789353377517</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.399229487745724</v>
+        <v>-1.375820450264718</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.337970243861961</v>
+        <v>-5.324694648780451</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.30900662833478</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.20177348297871</v>
+        <v>-14.2430927907472</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.318148856246914</v>
+        <v>-1.298575863498534</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.938510991858057</v>
+        <v>-4.925130658353813</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.75852526027379</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.0493822612549</v>
+        <v>-15.08737612410159</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.205332482659761</v>
+        <v>-1.184816844106776</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.368956541334448</v>
+        <v>-4.360027590796391</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.30071728141883</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.83134623308267</v>
+        <v>-15.86593609719051</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9676155399625406</v>
+        <v>-0.9454895481600235</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.844871658580153</v>
+        <v>-3.836374754035873</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.929894264060264</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.60042737891419</v>
+        <v>-16.63153469046613</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8812587104185154</v>
+        <v>-0.8557287198771496</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.372095510662584</v>
+        <v>-3.366269435898015</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.656503618649309</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.33456516846113</v>
+        <v>-17.36217683515433</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6944970103812931</v>
+        <v>-0.6720829879162581</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.785809097107248</v>
+        <v>-2.78885960366937</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.475947127346213</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.09788570104229</v>
+        <v>-18.1276968746129</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5151848306610128</v>
+        <v>-0.4896024709082801</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.507191800332476</v>
+        <v>-2.507898784685929</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.384362420908751</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.96699204058459</v>
+        <v>-18.99565109150513</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3531283060861276</v>
+        <v>-0.3272710079737186</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.940399825708471</v>
+        <v>-1.941525763752859</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.379751112846362</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.79400662649074</v>
+        <v>-19.82574236857909</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1069013665417854</v>
+        <v>-0.0844349748653835</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.666639773287979</v>
+        <v>-1.670344894992187</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.454283028998816</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.53791127395762</v>
+        <v>-20.56612518658154</v>
       </c>
       <c r="F18" t="n">
-        <v>0.004265376887310619</v>
+        <v>0.02331467752202205</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.223596245123969</v>
+        <v>-1.229461596797062</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.601515600005097</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.25234514772777</v>
+        <v>-21.28474859726104</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2774231833770833</v>
+        <v>0.2986458062835213</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8422043710416466</v>
+        <v>-0.8470485230930852</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.816312418780363</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.90206376855127</v>
+        <v>-21.92657255947098</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4311006341332639</v>
+        <v>0.449783350288407</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6073677349696062</v>
+        <v>-0.6156682549712604</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.08035820171282</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.51983717044095</v>
+        <v>-22.54490893038286</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6196297950541193</v>
+        <v>0.6369116348051976</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2617833091594048</v>
+        <v>-0.274011520013577</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.38647519015846</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.97154780308619</v>
+        <v>-22.99802043943215</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7884157632896518</v>
+        <v>0.8052524647441115</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1550155794851287</v>
+        <v>-0.1609333003695889</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.72446490552666</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.41959259093573</v>
+        <v>-23.44173167504109</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8680169645673462</v>
+        <v>0.8862676347287124</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.01195598633358798</v>
+        <v>-0.0161848001514655</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.08107220367768</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.91258325444093</v>
+        <v>-23.93290250845129</v>
       </c>
       <c r="F24" t="n">
-        <v>1.015475571473707</v>
+        <v>1.031421996334929</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.06389315170671529</v>
+        <v>-0.06475724369426922</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.45042163275674</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.16635136042211</v>
+        <v>-24.18447110755505</v>
       </c>
       <c r="F25" t="n">
-        <v>1.072021227447122</v>
+        <v>1.08672388353838</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1295979919911543</v>
+        <v>0.1300038533792478</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.82091343972283</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.43297610779386</v>
+        <v>-24.45097802420123</v>
       </c>
       <c r="F26" t="n">
-        <v>1.210825822175102</v>
+        <v>1.224179971073662</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02534398446248959</v>
+        <v>0.02687578389497154</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-12.17822897552632</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.48033096717238</v>
+        <v>-24.50178925152997</v>
       </c>
       <c r="F27" t="n">
-        <v>1.179967264377153</v>
+        <v>1.192863182676253</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1800611548213507</v>
+        <v>-0.1751384489528617</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.51677115564186</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.5634539979145</v>
+        <v>-24.58396963646748</v>
       </c>
       <c r="F28" t="n">
-        <v>1.107134783668631</v>
+        <v>1.120790055532551</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5451531118657238</v>
+        <v>-0.5328463471945013</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.82750688125132</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.37302645308159</v>
+        <v>-24.39407887605109</v>
       </c>
       <c r="F29" t="n">
-        <v>1.122452777993451</v>
+        <v>1.137063787964817</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.597718707775254</v>
+        <v>-0.5851631893500387</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-13.10137571971525</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.11427017971772</v>
+        <v>-24.13486437208775</v>
       </c>
       <c r="F30" t="n">
-        <v>1.005603975131045</v>
+        <v>1.023330953178743</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9201428498584419</v>
+        <v>-0.9036072713693418</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-13.33648101044228</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.88908257084003</v>
+        <v>-23.91060631671183</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9390296151808685</v>
+        <v>0.9555259167614433</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.140381568261958</v>
+        <v>-1.122981897785304</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-13.52172470718209</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.54217582244281</v>
+        <v>-23.564825506359</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9114965023047186</v>
+        <v>0.9304279722138544</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.388991306923494</v>
+        <v>-1.369797990957524</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-13.65331190531875</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.20385762470977</v>
+        <v>-23.22943998446251</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8750475311933531</v>
+        <v>0.8947383546673091</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.674220216633338</v>
+        <v>-1.651976394105246</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-13.72993128738824</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.75089013099173</v>
+        <v>-22.77648558304731</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8066664334510179</v>
+        <v>0.8285829484080673</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.913796266334084</v>
+        <v>-1.893149704752682</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-13.747763874113</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.39188609476876</v>
+        <v>-22.41797905433232</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7210558651689711</v>
+        <v>0.7465465788018117</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.200085652574108</v>
+        <v>-2.177750183926123</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-13.71000400754225</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.81539272373904</v>
+        <v>-21.84358045175727</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7694581087748324</v>
+        <v>0.7947000686536803</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.504088924558987</v>
+        <v>-2.480640610169456</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-13.62094378898562</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.36764905885485</v>
+        <v>-21.39447518737754</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7880099019015583</v>
+        <v>0.8131994925690392</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.683898611787253</v>
+        <v>-2.662309404401246</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-13.47926092384133</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.88047137781138</v>
+        <v>-20.91051821283314</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8849322198388563</v>
+        <v>0.9088911340392151</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.814808547901672</v>
+        <v>-2.793219340515665</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-13.29538436771902</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.38029304004608</v>
+        <v>-20.41714787254553</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9053693045747907</v>
+        <v>0.9288961727813725</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.879746369996633</v>
+        <v>-2.855355409802497</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-13.07743994835374</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.72206442237546</v>
+        <v>-19.75860503960671</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9231748364395381</v>
+        <v>0.9476312581478825</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.003075862765693</v>
+        <v>-2.977244749258967</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-12.82972062017511</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.19152503432019</v>
+        <v>-19.22412486839609</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9928913490717295</v>
+        <v>1.019390170023383</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.159136112639067</v>
+        <v>-3.13375013742896</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-12.56842232353945</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.43243331555691</v>
+        <v>-18.46583178010616</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9689717117798959</v>
+        <v>0.9951694097661898</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.372619202776252</v>
+        <v>-3.348568642456001</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-12.29905828506262</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.90709157172981</v>
+        <v>-17.94314777375593</v>
       </c>
       <c r="F43" t="n">
-        <v>1.080033716786258</v>
+        <v>1.102788139125178</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.407156697672726</v>
+        <v>-3.384611752179274</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-12.02679040501597</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.35230523881167</v>
+        <v>-17.38626667238311</v>
       </c>
       <c r="F44" t="n">
-        <v>1.024823475702699</v>
+        <v>1.051217558231619</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.552887120603978</v>
+        <v>-3.531860882240167</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-11.75938698944903</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.69829234265609</v>
+        <v>-16.73509480594418</v>
       </c>
       <c r="F45" t="n">
-        <v>1.047839744098454</v>
+        <v>1.071602273756187</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.730863885434403</v>
+        <v>-3.710034031613217</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-11.49927833285086</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.22509724104758</v>
+        <v>-16.26007987424067</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8729003935273101</v>
+        <v>0.8967283846992515</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.889660426601699</v>
+        <v>-3.871396664137491</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-11.24959432162746</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.62735506250574</v>
+        <v>-15.66466812560466</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9514280259719831</v>
+        <v>0.9747061404245719</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.859312468614577</v>
+        <v>-3.84378499744429</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.01689944322254</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.97452047360591</v>
+        <v>-15.01659913493922</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9343818476720557</v>
+        <v>0.9573719314621266</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.00602481425896</v>
+        <v>-3.988939359050507</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.79631018582409</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.46994312208579</v>
+        <v>-14.51134098367132</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8543224157949008</v>
+        <v>0.8762389307519503</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.11047520633025</v>
+        <v>-4.095445242667949</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.58949268829455</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.94718056191851</v>
+        <v>-13.99172057618606</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8485618025445413</v>
+        <v>0.8694309332742527</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.183687363821182</v>
+        <v>-4.170215384197046</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.39627102620296</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.46306647974</v>
+        <v>-13.51306598429255</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9582360234496806</v>
+        <v>0.9805583997948235</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.277022390779847</v>
+        <v>-4.263589688064236</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.21214240449999</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.82417519336661</v>
+        <v>-12.87628255867668</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8503554480338578</v>
+        <v>0.870753255861267</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.383960320391066</v>
+        <v>-4.369388587328225</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.04098415744865</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.42277828054213</v>
+        <v>-12.47517367651472</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8640892737148285</v>
+        <v>0.8831909435609068</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.571324266359007</v>
+        <v>-4.558965132476418</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.882301378535994</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.79175546817662</v>
+        <v>-11.84497567922823</v>
       </c>
       <c r="F54" t="n">
-        <v>0.84240842020893</v>
+        <v>0.8603448751020948</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.757392074345619</v>
+        <v>-4.740921957370727</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.731920062449436</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.41003628652325</v>
+        <v>-11.46330886678624</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8022543273933562</v>
+        <v>0.8211334280911252</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.977931915714494</v>
+        <v>-4.959039722713883</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.592246069596086</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.01873353918974</v>
+        <v>-11.08038519327143</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7249442791129638</v>
+        <v>0.7446351025869198</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.175913719287076</v>
+        <v>-5.159901832911645</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.463335257937654</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.45971839245372</v>
+        <v>-10.5235302765043</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7064186705919214</v>
+        <v>0.7259000172204098</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.257819165864914</v>
+        <v>-5.24041949538826</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.343730478656244</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.22285244944122</v>
+        <v>-10.28906022491183</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6172600882397669</v>
+        <v>0.6407084026292983</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.393691084756347</v>
+        <v>-5.381973473713002</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.240712447940698</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.717620482779008</v>
+        <v>-9.782676135599544</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6486423381513843</v>
+        <v>0.6697209457265633</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.607292005619108</v>
+        <v>-5.597053824796879</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.151861213358616</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.581552179344948</v>
+        <v>-9.650522430715162</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6332850669180395</v>
+        <v>0.6531853672374632</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.661755985440688</v>
+        <v>-5.654280280518063</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.077172681531447</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.201888489237733</v>
+        <v>-9.27398780098712</v>
       </c>
       <c r="F61" t="n">
-        <v>0.665479039605844</v>
+        <v>0.6865314625753395</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.675463626515976</v>
+        <v>-5.66495050733407</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.017691933940439</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.92311408482886</v>
+        <v>-8.99979570257285</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6267781924057018</v>
+        <v>0.6476080462268878</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.760825441044029</v>
+        <v>-5.751084767729785</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.970661124070878</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.596919359527256</v>
+        <v>-8.67400683865934</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5881166221140847</v>
+        <v>0.6081609377647672</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.74504921611975</v>
+        <v>-5.742234371008779</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.937096277120085</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.282939752776981</v>
+        <v>-8.365172506925862</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4823962766671466</v>
+        <v>0.5040902224758868</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.667621337113782</v>
+        <v>-5.669310244180364</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.918351933188687</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.174784239001482</v>
+        <v>-8.254686563244537</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3478990495740947</v>
+        <v>0.3654558276848494</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.693386989106298</v>
+        <v>-5.689812790430508</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.907875026141127</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.974629113157174</v>
+        <v>-8.05522532945084</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3007536670410392</v>
+        <v>0.320549228937729</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.678003533267271</v>
+        <v>-5.67382708866076</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.907708703096526</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.842121916096064</v>
+        <v>-7.925467515986493</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2046168872742447</v>
+        <v>0.2258002332721574</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.629562012752884</v>
+        <v>-5.626184198619719</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.917317443904821</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.696116554805135</v>
+        <v>-7.779789462266606</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1490924309224844</v>
+        <v>0.1708125613369079</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.573972094886916</v>
+        <v>-5.572754510722635</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.933607982780639</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.628769748987296</v>
+        <v>-7.710989410833336</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1422975257476286</v>
+        <v>0.1648424712410808</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.482404528811883</v>
+        <v>-5.483635205279006</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.961703359593088</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.636035977064455</v>
+        <v>-7.718844792538372</v>
       </c>
       <c r="F70" t="n">
-        <v>0.03330410459025904</v>
+        <v>0.05800928005259613</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.384343180527355</v>
+        <v>-5.384591934281348</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.000142433078226</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.709509980612221</v>
+        <v>-7.791546350218477</v>
       </c>
       <c r="F71" t="n">
-        <v>0.03495373474831652</v>
+        <v>0.06023497153568956</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.214169428190599</v>
+        <v>-5.2161463659197</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.047010242319653</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.716998777837689</v>
+        <v>-7.801483408075347</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.03529956230038556</v>
+        <v>-0.01393292406268862</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.137461625840927</v>
+        <v>-5.135550149626035</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.105132015421527</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.936622158007643</v>
+        <v>-8.016707774490481</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.06945738041444888</v>
+        <v>-0.04913812640409002</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.869003956071333</v>
+        <v>-4.867210310582017</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.174176984976654</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.060802650461415</v>
+        <v>-8.144082788837634</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1265136361986911</v>
+        <v>-0.1060241822513898</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.731744253078677</v>
+        <v>-4.733616452385044</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.254558321685455</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.409620875073523</v>
+        <v>-8.488436538180714</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2088380364674646</v>
+        <v>-0.1864632909109547</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.489445004386853</v>
+        <v>-4.490832788488076</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.350338917985285</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.668769917522649</v>
+        <v>-8.74720590384743</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.2009957470652707</v>
+        <v>-0.1788828475655954</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.197512835622045</v>
+        <v>-4.202383172279167</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.45605940920905</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.189699555292087</v>
+        <v>-9.265739650196831</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2685389374257355</v>
+        <v>-0.2488742985574629</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.979774747061299</v>
+        <v>-3.979316516461838</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.573251779122945</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.641370911028794</v>
+        <v>-9.719152282211489</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.2155936647337952</v>
+        <v>-0.1956802721115299</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.894268917201986</v>
+        <v>-3.890603072406303</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.70261772303753</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.08375982405072</v>
+        <v>-10.16222199498118</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.282901193643109</v>
+        <v>-0.263734062282822</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.750017924491848</v>
+        <v>-3.744362049664222</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.84200613500108</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.68325637117336</v>
+        <v>-10.75864185093601</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3389231575028548</v>
+        <v>-0.3171899347855895</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.42137493855884</v>
+        <v>-3.415627417611323</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.994401198937167</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.36371571906923</v>
+        <v>-11.43933686028303</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3533770598401204</v>
+        <v>-0.3329006981956608</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.2563202766332</v>
+        <v>-3.254016031333056</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.15943097654377</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.21183509715624</v>
+        <v>-12.28506034695002</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4162070211775638</v>
+        <v>-0.3969744283030682</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.917661679026271</v>
+        <v>-2.915619279782962</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.33072546284816</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.13253820219778</v>
+        <v>-13.20305334530332</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3935311526556942</v>
+        <v>-0.3741152675414145</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.782156344614407</v>
+        <v>-2.773436870921817</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.51038650605063</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.08368091134634</v>
+        <v>-14.15118482479828</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4485842861051523</v>
+        <v>-0.4294433393505488</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.502111986829886</v>
+        <v>-2.496024066008483</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.69655488546024</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.30660673518629</v>
+        <v>-15.374791448386</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4998537440333516</v>
+        <v>-0.4793904746917338</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.299927554045111</v>
+        <v>-2.29605223240396</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.88485593721687</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.37237255571416</v>
+        <v>-16.43953606929221</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.595663216229103</v>
+        <v>-0.5750297469505428</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.060875196458034</v>
+        <v>-2.05447306036843</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-11.07910577042549</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.54571782869249</v>
+        <v>-17.61110078908407</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5264049341963721</v>
+        <v>-0.5060464032774881</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.994562682564692</v>
+        <v>-1.993305821491886</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-11.27304414034593</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.92804243963046</v>
+        <v>-18.98893474014732</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6807762770031641</v>
+        <v>-0.6605748537183809</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.968273338458506</v>
+        <v>-1.964345647605988</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-11.46482968067133</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.46624400820201</v>
+        <v>-20.52239689509017</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6638479294288123</v>
+        <v>-0.6438297983838132</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.955220312525305</v>
+        <v>-1.951279529369945</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-11.65520445495878</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.1017868484018</v>
+        <v>-22.15775644305018</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6976391630633073</v>
+        <v>-0.6792313852678405</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.970590676061491</v>
+        <v>-1.964083801549153</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-11.84114855211327</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.81444335233935</v>
+        <v>-23.86949648578881</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8406594793063229</v>
+        <v>-0.8237704086404963</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.015052136511993</v>
+        <v>-2.006830170327389</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-12.02382392673823</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.547275094956</v>
+        <v>-25.60460628909992</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8886689538269325</v>
+        <v>-0.8712169141389116</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.081037342834292</v>
+        <v>-2.069777962390408</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-12.2061311877234</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.56487751668304</v>
+        <v>-27.6240416332248</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.064210550328796</v>
+        <v>-1.045554018779336</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.272708656437162</v>
+        <v>-2.26343930602522</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-12.3805811805623</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.61589149526217</v>
+        <v>-29.67686234959608</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.091691293993579</v>
+        <v>-1.072602716450342</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.333182003263095</v>
+        <v>-2.32806291285198</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-12.55281188875518</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.82202307791006</v>
+        <v>-31.87846399546074</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.324472438519468</v>
+        <v>-1.305973014604109</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.545408232327474</v>
+        <v>-2.54036769573341</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.72513334687878</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.07945030309183</v>
+        <v>-34.13937377319841</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.454086236652556</v>
+        <v>-1.435783197279823</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.766589596535594</v>
+        <v>-2.759624491423796</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.89357281697169</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.29592480498469</v>
+        <v>-36.35436884487015</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.629523094731685</v>
+        <v>-1.612136516557873</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.849424596615195</v>
+        <v>-2.842053630115303</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-13.06654854048853</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.63483852305337</v>
+        <v>-38.69112233296995</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.901136009486134</v>
+        <v>-1.882715139387826</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.114281883103314</v>
+        <v>-3.104763778937379</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-13.23697800812318</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.94036686887564</v>
+        <v>-40.99877163185258</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.916309988479695</v>
+        <v>-1.898635379643365</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.360744484098807</v>
+        <v>-3.354656563277404</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-13.40661677022171</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.27048255943468</v>
+        <v>-43.32920153767982</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.255426816686084</v>
+        <v>-2.236312054537164</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.413336264614021</v>
+        <v>-3.407942235843229</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-13.56496882574529</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.61831213573858</v>
+        <v>-45.67110030079642</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.290867680478636</v>
+        <v>-2.274868886406047</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.675352521385484</v>
+        <v>-3.671490292047175</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.72676017508694</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.15387224248998</v>
+        <v>-48.20971091410994</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.557125843370819</v>
+        <v>-2.543378925387007</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.697282128645376</v>
+        <v>-3.698971035711958</v>
       </c>
     </row>
   </sheetData>
